--- a/11-CollaborationList/SantiagoDeCompstella.xlsx
+++ b/11-CollaborationList/SantiagoDeCompstella.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD2A0EF-F5B8-524C-8E18-7F3E92DD6EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A84B4F5-DEF9-1D46-AA14-8E65960E143D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{AD094988-A457-9044-86A1-58DE43D24A21}"/>
   </bookViews>
@@ -103,13 +103,13 @@
     <t>USC</t>
   </si>
   <si>
-    <t>University of Santiago de Compostela, Center for Research in Molecular Medicine and Chronic diseases, 15782, Santiago de Compostela, Spain</t>
-  </si>
-  <si>
     <t>0000-0001-5957-2327</t>
   </si>
   <si>
     <t>IB</t>
+  </si>
+  <si>
+    <t>University of Santiago de Compostela, Center for Research in Molecular Medicine and Chronic Diseases, 15782, Santiago de Compostela, Spain</t>
   </si>
 </sst>
 </file>
@@ -998,7 +998,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,7 +1094,7 @@
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -1112,10 +1112,10 @@
         <v>25</v>
       </c>
       <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
         <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/11-CollaborationList/SantiagoDeCompstella.xlsx
+++ b/11-CollaborationList/SantiagoDeCompstella.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050106279233/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A84B4F5-DEF9-1D46-AA14-8E65960E143D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0A84B4F5-DEF9-1D46-AA14-8E65960E143D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{695333A1-D182-D740-925A-E36D52F37768}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{AD094988-A457-9044-86A1-58DE43D24A21}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Title</t>
   </si>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t>Yolanda Prezado</t>
-  </si>
-  <si>
-    <t>Inst-Curie</t>
-  </si>
-  <si>
-    <t>Institut Curie-Orsay Research Center, Bat a Campus d'Orsay, 91400 Orsay, France</t>
   </si>
   <si>
     <t>Uni-PSL</t>
@@ -997,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DBDFDB-9E47-924E-BB85-AA0F5297078D}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1091,13 +1085,13 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -1105,17 +1099,11 @@
       <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
